--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fall 2015 09.16" sheetId="4" r:id="rId1"/>
@@ -1510,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:R1048576"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1527,10 +1527,9 @@
     <col min="8" max="8" width="6.83203125" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,9 +1563,8 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1606,9 +1604,8 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1646,9 +1643,8 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1688,9 +1684,8 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1730,9 +1725,8 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1769,9 +1763,8 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1808,9 +1801,8 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1847,9 +1839,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1887,9 +1878,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1929,9 +1919,8 @@
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1970,9 +1959,8 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2009,9 +1997,8 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,7 +2042,6 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L13" s="3"/>
     </row>
     <row r="18" spans="6:6" ht="15.75" customHeight="1">
       <c r="F18" s="4"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fall 2015 09.16" sheetId="4" r:id="rId1"/>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +118,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -153,8 +165,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -164,7 +184,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,7 +525,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -553,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
@@ -574,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>
@@ -644,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
@@ -685,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
@@ -694,7 +722,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -722,7 +750,7 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
@@ -730,7 +758,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -738,6 +766,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -751,7 +780,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
+      <selection activeCell="L1" sqref="L1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -807,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
@@ -877,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -912,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -939,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
@@ -948,7 +977,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -984,7 +1013,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -992,6 +1021,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1001,6 +1031,261 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:S1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="11" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -1079,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -1131,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -1140,10 +1425,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -1152,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
@@ -1172,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -1202,7 +1487,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -1210,15 +1495,15 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
@@ -1226,11 +1511,11 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
@@ -1246,260 +1531,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="11" width="7.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="F11" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1513,7 +1545,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fall 2015 09.16" sheetId="4" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Player</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -546,39 +546,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -718,46 +718,46 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
-        <v>21</v>
+        <f t="shared" ref="B6" si="0">SUM(B2:B5)</f>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:K6" si="1">SUM(C2:C5)</f>
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:T1048576"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -801,42 +801,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -973,46 +973,46 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
-        <v>22</v>
+        <f t="shared" ref="B6" si="0">SUM(B2:B5)</f>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:K6" si="1">SUM(C2:C5)</f>
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:S1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1056,42 +1056,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -1228,46 +1228,46 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
-        <v>20</v>
+        <f t="shared" ref="B6" si="0">SUM(B2:B5)</f>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:K6" si="1">SUM(C2:C5)</f>
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1311,42 +1311,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -1483,46 +1483,46 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:K6" si="0">SUM(B2:B5)</f>
-        <v>19</v>
+        <f t="shared" ref="B6" si="0">SUM(B2:B5)</f>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:K6" si="1">SUM(C2:C5)</f>
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1565,44 +1565,44 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3">
-        <f>4+3+4</f>
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <f>4+3+3</f>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <f>1+1+2</f>
@@ -1639,11 +1639,11 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
-        <f>3+3+4</f>
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
+        <f>3+2+3</f>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <f>1+2+1</f>
@@ -1678,9 +1678,9 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" ref="B4" si="0">3+3+3</f>
         <v>9</v>
       </c>
@@ -1719,11 +1719,11 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <f>4+3+4</f>
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <f>4+3+3</f>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1760,9 +1760,9 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
         <f t="shared" ref="B6" si="4">3+3+4</f>
         <v>10</v>
       </c>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" ref="B7" si="5">3+3+3</f>
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" ref="B7:B8" si="5">3+3+3</f>
         <v>9</v>
       </c>
       <c r="C7" s="3">
@@ -1836,10 +1836,10 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" ref="B8" si="6">3+3+3</f>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C8" s="3">
@@ -1874,14 +1874,14 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" ref="B9" si="7">4+3+3</f>
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" ref="B9" si="6">4+3+3</f>
         <v>10</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:C10" si="8">1+1</f>
+        <f t="shared" ref="C9:C10" si="7">1+1</f>
         <v>2</v>
       </c>
       <c r="D9" s="3">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ref="F9:F10" si="9">1</f>
+        <f t="shared" ref="F9:F10" si="8">1</f>
         <v>1</v>
       </c>
       <c r="G9" s="3">
@@ -1913,14 +1913,14 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" ref="B10:B11" si="10">3+3+3</f>
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="5">
+        <f>3+1+3</f>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D10" s="3">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G10" s="3">
@@ -1954,10 +1954,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
-        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="B11" s="5">
+        <f>3+3+3</f>
         <v>9</v>
       </c>
       <c r="C11" s="3">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H12" si="11">1</f>
+        <f t="shared" ref="H11:H12" si="9">1</f>
         <v>1</v>
       </c>
       <c r="I11" s="3">
@@ -1994,10 +1994,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" ref="B12" si="12">1</f>
+        <v>21</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" ref="B12" si="10">1</f>
         <v>1</v>
       </c>
       <c r="C12" s="3">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
@@ -2032,46 +2032,46 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:K13" si="13">SUM(B2:B12)</f>
-        <v>98</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13" si="11">SUM(B2:B12)</f>
+        <v>92</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C13:K13" si="12">SUM(C2:C12)</f>
         <v>18</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
